--- a/doc/Backlog.xlsx
+++ b/doc/Backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -67,45 +67,15 @@
     <t>Database</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
     <t>Effort Plan Updated</t>
   </si>
   <si>
-    <t>Webbrowser</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Authorisation</t>
   </si>
   <si>
-    <t>UI Manager</t>
-  </si>
-  <si>
-    <t>Patient-Data-Manager</t>
-  </si>
-  <si>
-    <t>Data Import &amp; Export</t>
-  </si>
-  <si>
-    <t>Patient-Info</t>
-  </si>
-  <si>
-    <t>Patient CV</t>
-  </si>
-  <si>
-    <t>Timeline</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
     <t>Effort Plan Updated(h)</t>
   </si>
   <si>
@@ -121,29 +91,110 @@
     <t>Philipp</t>
   </si>
   <si>
-    <t>Katsyarina</t>
-  </si>
-  <si>
-    <t>Johnny</t>
-  </si>
-  <si>
     <t>Melisa</t>
   </si>
   <si>
-    <t>Comparation between ID's, UID's, query to Database and decision, wether User is authorized to view/edit files</t>
-  </si>
-  <si>
-    <t>Inut of UserID and Password -&gt; Request send to Authorisation Manager</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
+    <t>Doctor wants to Log in</t>
+  </si>
+  <si>
+    <t>Doctor views Patient information</t>
+  </si>
+  <si>
+    <t>Dctor chooses Patient and reviews Info</t>
+  </si>
+  <si>
+    <t>Doctor logs in with UID and Password(Athorisation)</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>Doctor changes Information of a PD(PatientDossier)</t>
+  </si>
+  <si>
+    <t>Doctor deletes access to Information of a PD(PatientDossier)</t>
+  </si>
+  <si>
+    <t>Doctor creates a new PD(PatientDossier)</t>
+  </si>
+  <si>
+    <t>Doctor views Timeline</t>
+  </si>
+  <si>
+    <t>View from a Foreign DB</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>in Process</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>DatabaseHandler</t>
+  </si>
+  <si>
+    <t>Package Structure</t>
+  </si>
+  <si>
+    <t>Create Packages and structure</t>
+  </si>
+  <si>
+    <t>Login GUI</t>
+  </si>
+  <si>
+    <t>Create GUI of Login</t>
+  </si>
+  <si>
+    <t>Login Controller</t>
+  </si>
+  <si>
+    <t>Implement Login class controller</t>
+  </si>
+  <si>
+    <t>Create a DatabaseHandler to handle Login Information(UID, PW)</t>
+  </si>
+  <si>
+    <t>Compare UID and PW with Info from DB</t>
+  </si>
+  <si>
+    <t>Controller, DB</t>
+  </si>
+  <si>
+    <t>Test Login</t>
+  </si>
+  <si>
+    <t>Testrun</t>
+  </si>
+  <si>
+    <t>All the above</t>
+  </si>
+  <si>
+    <t>In Process</t>
+  </si>
+  <si>
+    <t>Katsiaryna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +206,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -198,23 +257,71 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -517,19 +624,19 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B3:B5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -546,479 +653,489 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" t="s">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="5">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="5">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2.1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2">
+      <c r="D6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.3</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="K13" s="6"/>
-    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="9"/>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="9"/>
+    </row>
+    <row r="29" spans="11:11" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <conditionalFormatting sqref="K17:K29 K11:K14 K2:K9">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="not started">
+      <formula>NOT(ISERROR(SEARCH("not started",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="finished">
+      <formula>NOT(ISERROR(SEARCH("finished",K2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:K16">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="not started">
+      <formula>NOT(ISERROR(SEARCH("not started",K15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="finished">
+      <formula>NOT(ISERROR(SEARCH("finished",K15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
